--- a/Materiales/Plantilla Gestión del Proyecto/Plantilla Gestión del Proyecto.xlsx
+++ b/Materiales/Plantilla Gestión del Proyecto/Plantilla Gestión del Proyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Datos Daniel\Sena\Programa ADSI\Temas ADSI\Presupuesto - Gantt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Wilmar.WR\Proyecto_sena\Materiales\Plantilla Gestión del Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2910E9-20C2-416E-8A82-B6D877235EA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7795CA8F-06CA-4F26-99EE-FDA97EB0DD81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificación" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1266,10 +1269,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1296,14 +1295,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1375,14 +1366,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1398,10 +1381,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="20" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1429,10 +1408,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="37" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1472,15 +1447,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1492,45 +1459,13 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="41" fontId="16" fillId="0" borderId="40" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1542,6 +1477,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1563,6 +1504,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1594,6 +1561,47 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1624,58 +1632,39 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3106,7 +3095,7 @@
                   <c:v>FASE  DE ANALISIS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FASE DE DISEÑO</c:v>
+                  <c:v>Diagrama Gantt/ costos / Recursos</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>FASE DESARROLLO</c:v>
@@ -8191,40 +8180,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AN469"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.3984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.69921875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.3984375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.19921875" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.25" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="13" width="11" style="3"/>
-    <col min="14" max="14" width="14.69921875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.75" style="3" customWidth="1"/>
     <col min="15" max="16" width="11" style="3"/>
-    <col min="17" max="17" width="10.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.75" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="142" t="s">
+    <row r="1" spans="2:40" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -8256,15 +8245,15 @@
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
     </row>
-    <row r="2" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+    <row r="2" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -8296,7 +8285,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
     </row>
-    <row r="3" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
@@ -8338,7 +8327,7 @@
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
     </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
@@ -8380,7 +8369,7 @@
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -8420,18 +8409,18 @@
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
     </row>
-    <row r="6" spans="2:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="145" t="s">
+      <c r="E6" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="146"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="148" t="s">
+      <c r="F6" s="129"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="149"/>
+      <c r="I6" s="132"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -8456,7 +8445,7 @@
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
     </row>
-    <row r="7" spans="2:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:40" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="17" t="s">
         <v>7</v>
       </c>
@@ -8500,8 +8489,8 @@
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
     </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B8" s="98"/>
+    <row r="8" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B8" s="93"/>
       <c r="C8" s="22" t="s">
         <v>8</v>
       </c>
@@ -8535,14 +8524,14 @@
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
     </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B9" s="99" t="s">
+    <row r="9" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B9" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="144"/>
+      <c r="D9" s="125"/>
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="26"/>
@@ -8575,25 +8564,25 @@
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
     </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B10" s="99">
+    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B10" s="94">
         <v>1</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="135"/>
-      <c r="E10" s="185">
+      <c r="D10" s="127"/>
+      <c r="E10" s="122">
         <v>43748</v>
       </c>
-      <c r="F10" s="185">
+      <c r="F10" s="122">
         <v>43774</v>
       </c>
-      <c r="G10" s="81">
+      <c r="G10" s="78">
         <f>F10-E10</f>
         <v>26</v>
       </c>
-      <c r="H10" s="131" t="s">
+      <c r="H10" s="121" t="s">
         <v>81</v>
       </c>
       <c r="I10" s="28">
@@ -8623,21 +8612,21 @@
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
     </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B11" s="99">
+    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B11" s="94">
         <v>2</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="135"/>
-      <c r="E11" s="80">
+      <c r="D11" s="127"/>
+      <c r="E11" s="77">
         <v>43775</v>
       </c>
-      <c r="F11" s="80">
+      <c r="F11" s="77">
         <v>43784</v>
       </c>
-      <c r="G11" s="81">
+      <c r="G11" s="78">
         <f>F11-E11</f>
         <v>9</v>
       </c>
@@ -8671,21 +8660,21 @@
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
     </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B12" s="99">
+    <row r="12" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B12" s="94">
         <v>3</v>
       </c>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="151"/>
-      <c r="E12" s="80">
+      <c r="D12" s="134"/>
+      <c r="E12" s="77">
         <v>43785</v>
       </c>
-      <c r="F12" s="80">
+      <c r="F12" s="77">
         <v>43831</v>
       </c>
-      <c r="G12" s="81">
+      <c r="G12" s="78">
         <f t="shared" ref="G12:G30" si="0">F12-E12</f>
         <v>46</v>
       </c>
@@ -8723,17 +8712,17 @@
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
     </row>
-    <row r="13" spans="2:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="99">
+    <row r="13" spans="2:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="94">
         <v>4</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81">
+      <c r="D13" s="127"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8771,17 +8760,17 @@
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
     </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B14" s="99">
+    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B14" s="94">
         <v>5</v>
       </c>
-      <c r="C14" s="150" t="s">
+      <c r="C14" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="151"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="81">
+      <c r="D14" s="134"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8815,15 +8804,15 @@
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
     </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B15" s="99"/>
-      <c r="C15" s="143" t="s">
+    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B15" s="94"/>
+      <c r="C15" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="144"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="26"/>
       <c r="I15" s="38">
         <f>J16/J17</f>
@@ -8853,17 +8842,17 @@
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
     </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B16" s="99">
+    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B16" s="94">
         <v>6</v>
       </c>
-      <c r="C16" s="134" t="s">
+      <c r="C16" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="135"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81">
+      <c r="D16" s="127"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8901,17 +8890,17 @@
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
     </row>
-    <row r="17" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="99">
+    <row r="17" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="94">
         <v>7</v>
       </c>
-      <c r="C17" s="134" t="s">
+      <c r="C17" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81">
+      <c r="D17" s="127"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8949,17 +8938,17 @@
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
     </row>
-    <row r="18" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="99">
+    <row r="18" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="94">
         <v>8</v>
       </c>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81">
+      <c r="D18" s="127"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8993,17 +8982,17 @@
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
     </row>
-    <row r="19" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="99">
+    <row r="19" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="94">
         <v>9</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81">
+      <c r="D19" s="127"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9037,17 +9026,17 @@
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B20" s="99">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B20" s="94">
         <v>10</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="137"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81">
+      <c r="D20" s="138"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9081,17 +9070,17 @@
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
     </row>
-    <row r="21" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="99">
+    <row r="21" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="94">
         <v>11</v>
       </c>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="137"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="81">
+      <c r="D21" s="138"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9125,17 +9114,17 @@
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
     </row>
-    <row r="22" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="99">
+    <row r="22" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="94">
         <v>12</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="135"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="81">
+      <c r="D22" s="127"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9169,15 +9158,15 @@
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B23" s="99"/>
-      <c r="C23" s="140" t="s">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B23" s="94"/>
+      <c r="C23" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="141"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="26"/>
       <c r="I23" s="39">
         <f>J24/J25</f>
@@ -9207,17 +9196,17 @@
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
     </row>
-    <row r="24" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="99">
+    <row r="24" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="94">
         <v>13</v>
       </c>
-      <c r="C24" s="134" t="s">
+      <c r="C24" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="135"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81">
+      <c r="D24" s="127"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9255,17 +9244,17 @@
       <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
     </row>
-    <row r="25" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="99">
+    <row r="25" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="94">
         <v>14</v>
       </c>
-      <c r="C25" s="134" t="s">
+      <c r="C25" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="135"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81">
+      <c r="D25" s="127"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9303,15 +9292,15 @@
       <c r="AM25" s="2"/>
       <c r="AN25" s="2"/>
     </row>
-    <row r="26" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B26" s="99"/>
-      <c r="C26" s="143" t="s">
+    <row r="26" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B26" s="94"/>
+      <c r="C26" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="144"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
       <c r="H26" s="26"/>
       <c r="I26" s="39">
         <f>J27/J28</f>
@@ -9341,17 +9330,17 @@
       <c r="AM26" s="2"/>
       <c r="AN26" s="2"/>
     </row>
-    <row r="27" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="99">
+    <row r="27" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="94">
         <v>15</v>
       </c>
-      <c r="C27" s="134" t="s">
+      <c r="C27" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="81">
+      <c r="D27" s="127"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9389,17 +9378,17 @@
       <c r="AM27" s="2"/>
       <c r="AN27" s="2"/>
     </row>
-    <row r="28" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="99">
+    <row r="28" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="94">
         <v>16</v>
       </c>
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="135"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="81">
+      <c r="D28" s="127"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9437,13 +9426,13 @@
       <c r="AM28" s="2"/>
       <c r="AN28" s="2"/>
     </row>
-    <row r="29" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B29" s="100"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="139"/>
+    <row r="29" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B29" s="95"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="140"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="81"/>
+      <c r="G29" s="78"/>
       <c r="H29" s="26"/>
       <c r="I29" s="27"/>
       <c r="R29" s="2"/>
@@ -9470,17 +9459,17 @@
       <c r="AM29" s="2"/>
       <c r="AN29" s="2"/>
     </row>
-    <row r="30" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B30" s="101"/>
-      <c r="C30" s="132" t="s">
+    <row r="30" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B30" s="96"/>
+      <c r="C30" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="133"/>
-      <c r="E30" s="102">
+      <c r="D30" s="136"/>
+      <c r="E30" s="97">
         <f>E11</f>
         <v>43775</v>
       </c>
-      <c r="F30" s="102">
+      <c r="F30" s="97">
         <f>F28</f>
         <v>0</v>
       </c>
@@ -9514,7 +9503,7 @@
       <c r="AM30" s="2"/>
       <c r="AN30" s="2"/>
     </row>
-    <row r="31" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
@@ -9554,7 +9543,7 @@
       <c r="AM31" s="2"/>
       <c r="AN31" s="2"/>
     </row>
-    <row r="32" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -9571,7 +9560,7 @@
       <c r="P32" s="35"/>
       <c r="Q32" s="36"/>
     </row>
-    <row r="33" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -9611,7 +9600,7 @@
       <c r="AM33" s="2"/>
       <c r="AN33" s="2"/>
     </row>
-    <row r="34" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -9651,7 +9640,7 @@
       <c r="AM34" s="2"/>
       <c r="AN34" s="2"/>
     </row>
-    <row r="35" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -9691,7 +9680,7 @@
       <c r="AM35" s="2"/>
       <c r="AN35" s="2"/>
     </row>
-    <row r="36" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -9731,7 +9720,7 @@
       <c r="AM36" s="2"/>
       <c r="AN36" s="2"/>
     </row>
-    <row r="37" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -9771,7 +9760,7 @@
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
     </row>
-    <row r="38" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -9811,7 +9800,7 @@
       <c r="AM38" s="2"/>
       <c r="AN38" s="2"/>
     </row>
-    <row r="39" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -9851,7 +9840,7 @@
       <c r="AM39" s="2"/>
       <c r="AN39" s="2"/>
     </row>
-    <row r="40" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -9891,7 +9880,7 @@
       <c r="AM40" s="2"/>
       <c r="AN40" s="2"/>
     </row>
-    <row r="41" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -9931,7 +9920,7 @@
       <c r="AM41" s="2"/>
       <c r="AN41" s="2"/>
     </row>
-    <row r="42" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -9971,7 +9960,7 @@
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
     </row>
-    <row r="43" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -10011,7 +10000,7 @@
       <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
     </row>
-    <row r="44" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -10051,7 +10040,7 @@
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
     </row>
-    <row r="45" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -10091,7 +10080,7 @@
       <c r="AM45" s="2"/>
       <c r="AN45" s="2"/>
     </row>
-    <row r="46" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -10131,7 +10120,7 @@
       <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
     </row>
-    <row r="47" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -10171,7 +10160,7 @@
       <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
     </row>
-    <row r="48" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -10211,7 +10200,7 @@
       <c r="AM48" s="2"/>
       <c r="AN48" s="2"/>
     </row>
-    <row r="49" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -10251,7 +10240,7 @@
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
     </row>
-    <row r="50" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -10291,7 +10280,7 @@
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
     </row>
-    <row r="51" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -10331,7 +10320,7 @@
       <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
     </row>
-    <row r="52" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -10371,7 +10360,7 @@
       <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
     </row>
-    <row r="53" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -10411,7 +10400,7 @@
       <c r="AM53" s="2"/>
       <c r="AN53" s="2"/>
     </row>
-    <row r="54" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -10451,7 +10440,7 @@
       <c r="AM54" s="2"/>
       <c r="AN54" s="2"/>
     </row>
-    <row r="55" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -10491,7 +10480,7 @@
       <c r="AM55" s="2"/>
       <c r="AN55" s="2"/>
     </row>
-    <row r="56" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -10531,7 +10520,7 @@
       <c r="AM56" s="2"/>
       <c r="AN56" s="2"/>
     </row>
-    <row r="57" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -10571,7 +10560,7 @@
       <c r="AM57" s="2"/>
       <c r="AN57" s="2"/>
     </row>
-    <row r="58" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -10611,7 +10600,7 @@
       <c r="AM58" s="2"/>
       <c r="AN58" s="2"/>
     </row>
-    <row r="59" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -10651,7 +10640,7 @@
       <c r="AM59" s="2"/>
       <c r="AN59" s="2"/>
     </row>
-    <row r="60" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -10691,7 +10680,7 @@
       <c r="AM60" s="2"/>
       <c r="AN60" s="2"/>
     </row>
-    <row r="61" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -10731,7 +10720,7 @@
       <c r="AM61" s="2"/>
       <c r="AN61" s="2"/>
     </row>
-    <row r="62" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -10771,7 +10760,7 @@
       <c r="AM62" s="2"/>
       <c r="AN62" s="2"/>
     </row>
-    <row r="63" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -10811,7 +10800,7 @@
       <c r="AM63" s="2"/>
       <c r="AN63" s="2"/>
     </row>
-    <row r="64" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -10851,7 +10840,7 @@
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
     </row>
-    <row r="65" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -10891,7 +10880,7 @@
       <c r="AM65" s="2"/>
       <c r="AN65" s="2"/>
     </row>
-    <row r="66" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -10931,7 +10920,7 @@
       <c r="AM66" s="2"/>
       <c r="AN66" s="2"/>
     </row>
-    <row r="67" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -10971,7 +10960,7 @@
       <c r="AM67" s="2"/>
       <c r="AN67" s="2"/>
     </row>
-    <row r="68" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -11011,7 +11000,7 @@
       <c r="AM68" s="2"/>
       <c r="AN68" s="2"/>
     </row>
-    <row r="69" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -11051,7 +11040,7 @@
       <c r="AM69" s="2"/>
       <c r="AN69" s="2"/>
     </row>
-    <row r="70" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -11091,7 +11080,7 @@
       <c r="AM70" s="2"/>
       <c r="AN70" s="2"/>
     </row>
-    <row r="71" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -11131,7 +11120,7 @@
       <c r="AM71" s="2"/>
       <c r="AN71" s="2"/>
     </row>
-    <row r="72" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -11171,7 +11160,7 @@
       <c r="AM72" s="2"/>
       <c r="AN72" s="2"/>
     </row>
-    <row r="73" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -11211,7 +11200,7 @@
       <c r="AM73" s="2"/>
       <c r="AN73" s="2"/>
     </row>
-    <row r="74" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -11251,7 +11240,7 @@
       <c r="AM74" s="2"/>
       <c r="AN74" s="2"/>
     </row>
-    <row r="75" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -11291,7 +11280,7 @@
       <c r="AM75" s="2"/>
       <c r="AN75" s="2"/>
     </row>
-    <row r="76" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -11331,7 +11320,7 @@
       <c r="AM76" s="2"/>
       <c r="AN76" s="2"/>
     </row>
-    <row r="77" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -11371,7 +11360,7 @@
       <c r="AM77" s="2"/>
       <c r="AN77" s="2"/>
     </row>
-    <row r="78" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -11411,7 +11400,7 @@
       <c r="AM78" s="2"/>
       <c r="AN78" s="2"/>
     </row>
-    <row r="79" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -11451,7 +11440,7 @@
       <c r="AM79" s="2"/>
       <c r="AN79" s="2"/>
     </row>
-    <row r="80" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -11491,7 +11480,7 @@
       <c r="AM80" s="2"/>
       <c r="AN80" s="2"/>
     </row>
-    <row r="81" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -11531,7 +11520,7 @@
       <c r="AM81" s="2"/>
       <c r="AN81" s="2"/>
     </row>
-    <row r="82" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -11571,7 +11560,7 @@
       <c r="AM82" s="2"/>
       <c r="AN82" s="2"/>
     </row>
-    <row r="83" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -11611,7 +11600,7 @@
       <c r="AM83" s="2"/>
       <c r="AN83" s="2"/>
     </row>
-    <row r="84" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -11651,7 +11640,7 @@
       <c r="AM84" s="2"/>
       <c r="AN84" s="2"/>
     </row>
-    <row r="85" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -11691,7 +11680,7 @@
       <c r="AM85" s="2"/>
       <c r="AN85" s="2"/>
     </row>
-    <row r="86" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -11731,7 +11720,7 @@
       <c r="AM86" s="2"/>
       <c r="AN86" s="2"/>
     </row>
-    <row r="87" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -11771,7 +11760,7 @@
       <c r="AM87" s="2"/>
       <c r="AN87" s="2"/>
     </row>
-    <row r="88" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -11811,7 +11800,7 @@
       <c r="AM88" s="2"/>
       <c r="AN88" s="2"/>
     </row>
-    <row r="89" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -11851,7 +11840,7 @@
       <c r="AM89" s="2"/>
       <c r="AN89" s="2"/>
     </row>
-    <row r="90" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -11891,7 +11880,7 @@
       <c r="AM90" s="2"/>
       <c r="AN90" s="2"/>
     </row>
-    <row r="91" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -11931,7 +11920,7 @@
       <c r="AM91" s="2"/>
       <c r="AN91" s="2"/>
     </row>
-    <row r="92" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -11971,7 +11960,7 @@
       <c r="AM92" s="2"/>
       <c r="AN92" s="2"/>
     </row>
-    <row r="93" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -12011,7 +12000,7 @@
       <c r="AM93" s="2"/>
       <c r="AN93" s="2"/>
     </row>
-    <row r="94" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -12051,7 +12040,7 @@
       <c r="AM94" s="2"/>
       <c r="AN94" s="2"/>
     </row>
-    <row r="95" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -12091,7 +12080,7 @@
       <c r="AM95" s="2"/>
       <c r="AN95" s="2"/>
     </row>
-    <row r="96" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -12131,7 +12120,7 @@
       <c r="AM96" s="2"/>
       <c r="AN96" s="2"/>
     </row>
-    <row r="97" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -12171,7 +12160,7 @@
       <c r="AM97" s="2"/>
       <c r="AN97" s="2"/>
     </row>
-    <row r="98" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -12211,7 +12200,7 @@
       <c r="AM98" s="2"/>
       <c r="AN98" s="2"/>
     </row>
-    <row r="99" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -12251,7 +12240,7 @@
       <c r="AM99" s="2"/>
       <c r="AN99" s="2"/>
     </row>
-    <row r="100" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -12291,7 +12280,7 @@
       <c r="AM100" s="2"/>
       <c r="AN100" s="2"/>
     </row>
-    <row r="101" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -12331,7 +12320,7 @@
       <c r="AM101" s="2"/>
       <c r="AN101" s="2"/>
     </row>
-    <row r="102" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -12371,7 +12360,7 @@
       <c r="AM102" s="2"/>
       <c r="AN102" s="2"/>
     </row>
-    <row r="103" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -12411,7 +12400,7 @@
       <c r="AM103" s="2"/>
       <c r="AN103" s="2"/>
     </row>
-    <row r="104" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -12451,7 +12440,7 @@
       <c r="AM104" s="2"/>
       <c r="AN104" s="2"/>
     </row>
-    <row r="105" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -12491,7 +12480,7 @@
       <c r="AM105" s="2"/>
       <c r="AN105" s="2"/>
     </row>
-    <row r="106" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -12531,7 +12520,7 @@
       <c r="AM106" s="2"/>
       <c r="AN106" s="2"/>
     </row>
-    <row r="107" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -12571,7 +12560,7 @@
       <c r="AM107" s="2"/>
       <c r="AN107" s="2"/>
     </row>
-    <row r="108" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -12611,7 +12600,7 @@
       <c r="AM108" s="2"/>
       <c r="AN108" s="2"/>
     </row>
-    <row r="109" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -12651,7 +12640,7 @@
       <c r="AM109" s="2"/>
       <c r="AN109" s="2"/>
     </row>
-    <row r="110" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -12691,7 +12680,7 @@
       <c r="AM110" s="2"/>
       <c r="AN110" s="2"/>
     </row>
-    <row r="111" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -12731,7 +12720,7 @@
       <c r="AM111" s="2"/>
       <c r="AN111" s="2"/>
     </row>
-    <row r="112" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -12771,7 +12760,7 @@
       <c r="AM112" s="2"/>
       <c r="AN112" s="2"/>
     </row>
-    <row r="113" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -12811,7 +12800,7 @@
       <c r="AM113" s="2"/>
       <c r="AN113" s="2"/>
     </row>
-    <row r="114" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -12851,7 +12840,7 @@
       <c r="AM114" s="2"/>
       <c r="AN114" s="2"/>
     </row>
-    <row r="115" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -12891,7 +12880,7 @@
       <c r="AM115" s="2"/>
       <c r="AN115" s="2"/>
     </row>
-    <row r="116" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -12931,7 +12920,7 @@
       <c r="AM116" s="2"/>
       <c r="AN116" s="2"/>
     </row>
-    <row r="117" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -12971,7 +12960,7 @@
       <c r="AM117" s="2"/>
       <c r="AN117" s="2"/>
     </row>
-    <row r="118" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -13011,7 +13000,7 @@
       <c r="AM118" s="2"/>
       <c r="AN118" s="2"/>
     </row>
-    <row r="119" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -13051,7 +13040,7 @@
       <c r="AM119" s="2"/>
       <c r="AN119" s="2"/>
     </row>
-    <row r="120" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -13091,7 +13080,7 @@
       <c r="AM120" s="2"/>
       <c r="AN120" s="2"/>
     </row>
-    <row r="121" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -13131,7 +13120,7 @@
       <c r="AM121" s="2"/>
       <c r="AN121" s="2"/>
     </row>
-    <row r="122" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -13171,7 +13160,7 @@
       <c r="AM122" s="2"/>
       <c r="AN122" s="2"/>
     </row>
-    <row r="123" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -13211,7 +13200,7 @@
       <c r="AM123" s="2"/>
       <c r="AN123" s="2"/>
     </row>
-    <row r="124" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -13251,7 +13240,7 @@
       <c r="AM124" s="2"/>
       <c r="AN124" s="2"/>
     </row>
-    <row r="125" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -13291,7 +13280,7 @@
       <c r="AM125" s="2"/>
       <c r="AN125" s="2"/>
     </row>
-    <row r="126" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -13331,7 +13320,7 @@
       <c r="AM126" s="2"/>
       <c r="AN126" s="2"/>
     </row>
-    <row r="127" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -13351,7 +13340,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -13371,7 +13360,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -13391,7 +13380,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -13411,7 +13400,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -13431,7 +13420,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -13451,7 +13440,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -13471,7 +13460,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -13491,7 +13480,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -13511,7 +13500,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -13531,7 +13520,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -13551,7 +13540,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -13571,7 +13560,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -13591,7 +13580,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -13611,7 +13600,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -13631,7 +13620,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -13651,7 +13640,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -13671,7 +13660,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -13691,7 +13680,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -13711,7 +13700,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -13731,7 +13720,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -13751,7 +13740,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -13771,7 +13760,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -13791,7 +13780,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -13811,7 +13800,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -13831,7 +13820,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -13851,7 +13840,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -13871,7 +13860,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -13891,7 +13880,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -13911,7 +13900,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -13931,7 +13920,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -13951,7 +13940,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -13971,7 +13960,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -13991,7 +13980,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -14011,7 +14000,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -14031,7 +14020,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -14051,7 +14040,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -14071,7 +14060,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -14091,7 +14080,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -14111,7 +14100,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -14131,7 +14120,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -14151,7 +14140,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -14171,7 +14160,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -14191,7 +14180,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -14211,7 +14200,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -14231,7 +14220,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -14251,7 +14240,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -14271,7 +14260,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -14291,7 +14280,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -14311,7 +14300,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -14331,7 +14320,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -14351,7 +14340,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -14371,7 +14360,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -14391,7 +14380,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -14411,7 +14400,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -14431,7 +14420,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -14451,7 +14440,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -14471,7 +14460,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -14491,7 +14480,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -14511,7 +14500,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -14531,7 +14520,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -14551,7 +14540,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -14571,7 +14560,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -14591,7 +14580,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -14611,7 +14600,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -14631,7 +14620,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -14651,7 +14640,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -14671,7 +14660,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -14691,7 +14680,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -14711,7 +14700,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -14731,7 +14720,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -14751,7 +14740,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -14771,7 +14760,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -14791,7 +14780,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -14811,7 +14800,7 @@
       <c r="S200" s="2"/>
       <c r="T200" s="2"/>
     </row>
-    <row r="201" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -14831,7 +14820,7 @@
       <c r="S201" s="2"/>
       <c r="T201" s="2"/>
     </row>
-    <row r="202" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -14851,7 +14840,7 @@
       <c r="S202" s="2"/>
       <c r="T202" s="2"/>
     </row>
-    <row r="203" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -14871,7 +14860,7 @@
       <c r="S203" s="2"/>
       <c r="T203" s="2"/>
     </row>
-    <row r="204" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -14891,7 +14880,7 @@
       <c r="S204" s="2"/>
       <c r="T204" s="2"/>
     </row>
-    <row r="205" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -14911,7 +14900,7 @@
       <c r="S205" s="2"/>
       <c r="T205" s="2"/>
     </row>
-    <row r="206" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -14931,7 +14920,7 @@
       <c r="S206" s="2"/>
       <c r="T206" s="2"/>
     </row>
-    <row r="207" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -14951,7 +14940,7 @@
       <c r="S207" s="2"/>
       <c r="T207" s="2"/>
     </row>
-    <row r="208" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -14971,7 +14960,7 @@
       <c r="S208" s="2"/>
       <c r="T208" s="2"/>
     </row>
-    <row r="209" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -14991,7 +14980,7 @@
       <c r="S209" s="2"/>
       <c r="T209" s="2"/>
     </row>
-    <row r="210" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -15011,7 +15000,7 @@
       <c r="S210" s="2"/>
       <c r="T210" s="2"/>
     </row>
-    <row r="211" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -15031,7 +15020,7 @@
       <c r="S211" s="2"/>
       <c r="T211" s="2"/>
     </row>
-    <row r="212" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -15051,7 +15040,7 @@
       <c r="S212" s="2"/>
       <c r="T212" s="2"/>
     </row>
-    <row r="213" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -15071,7 +15060,7 @@
       <c r="S213" s="2"/>
       <c r="T213" s="2"/>
     </row>
-    <row r="214" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -15091,7 +15080,7 @@
       <c r="S214" s="2"/>
       <c r="T214" s="2"/>
     </row>
-    <row r="215" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -15111,7 +15100,7 @@
       <c r="S215" s="2"/>
       <c r="T215" s="2"/>
     </row>
-    <row r="216" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -15131,7 +15120,7 @@
       <c r="S216" s="2"/>
       <c r="T216" s="2"/>
     </row>
-    <row r="217" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -15151,7 +15140,7 @@
       <c r="S217" s="2"/>
       <c r="T217" s="2"/>
     </row>
-    <row r="218" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -15171,7 +15160,7 @@
       <c r="S218" s="2"/>
       <c r="T218" s="2"/>
     </row>
-    <row r="219" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -15191,7 +15180,7 @@
       <c r="S219" s="2"/>
       <c r="T219" s="2"/>
     </row>
-    <row r="220" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -15211,7 +15200,7 @@
       <c r="S220" s="2"/>
       <c r="T220" s="2"/>
     </row>
-    <row r="221" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -15231,7 +15220,7 @@
       <c r="S221" s="2"/>
       <c r="T221" s="2"/>
     </row>
-    <row r="222" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -15251,7 +15240,7 @@
       <c r="S222" s="2"/>
       <c r="T222" s="2"/>
     </row>
-    <row r="223" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -15271,7 +15260,7 @@
       <c r="S223" s="2"/>
       <c r="T223" s="2"/>
     </row>
-    <row r="224" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -15291,7 +15280,7 @@
       <c r="S224" s="2"/>
       <c r="T224" s="2"/>
     </row>
-    <row r="225" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -15311,7 +15300,7 @@
       <c r="S225" s="2"/>
       <c r="T225" s="2"/>
     </row>
-    <row r="226" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -15331,7 +15320,7 @@
       <c r="S226" s="2"/>
       <c r="T226" s="2"/>
     </row>
-    <row r="227" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -15351,7 +15340,7 @@
       <c r="S227" s="2"/>
       <c r="T227" s="2"/>
     </row>
-    <row r="228" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -15371,7 +15360,7 @@
       <c r="S228" s="2"/>
       <c r="T228" s="2"/>
     </row>
-    <row r="229" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -15391,7 +15380,7 @@
       <c r="S229" s="2"/>
       <c r="T229" s="2"/>
     </row>
-    <row r="230" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -15411,7 +15400,7 @@
       <c r="S230" s="2"/>
       <c r="T230" s="2"/>
     </row>
-    <row r="231" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -15431,7 +15420,7 @@
       <c r="S231" s="2"/>
       <c r="T231" s="2"/>
     </row>
-    <row r="232" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -15451,7 +15440,7 @@
       <c r="S232" s="2"/>
       <c r="T232" s="2"/>
     </row>
-    <row r="233" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -15471,7 +15460,7 @@
       <c r="S233" s="2"/>
       <c r="T233" s="2"/>
     </row>
-    <row r="234" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -15491,7 +15480,7 @@
       <c r="S234" s="2"/>
       <c r="T234" s="2"/>
     </row>
-    <row r="235" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -15511,7 +15500,7 @@
       <c r="S235" s="2"/>
       <c r="T235" s="2"/>
     </row>
-    <row r="236" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -15531,7 +15520,7 @@
       <c r="S236" s="2"/>
       <c r="T236" s="2"/>
     </row>
-    <row r="237" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -15551,7 +15540,7 @@
       <c r="S237" s="2"/>
       <c r="T237" s="2"/>
     </row>
-    <row r="238" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -15571,7 +15560,7 @@
       <c r="S238" s="2"/>
       <c r="T238" s="2"/>
     </row>
-    <row r="239" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -15591,7 +15580,7 @@
       <c r="S239" s="2"/>
       <c r="T239" s="2"/>
     </row>
-    <row r="240" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -15611,7 +15600,7 @@
       <c r="S240" s="2"/>
       <c r="T240" s="2"/>
     </row>
-    <row r="241" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -15631,7 +15620,7 @@
       <c r="S241" s="2"/>
       <c r="T241" s="2"/>
     </row>
-    <row r="242" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -15651,7 +15640,7 @@
       <c r="S242" s="2"/>
       <c r="T242" s="2"/>
     </row>
-    <row r="243" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -15671,7 +15660,7 @@
       <c r="S243" s="2"/>
       <c r="T243" s="2"/>
     </row>
-    <row r="244" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -15691,7 +15680,7 @@
       <c r="S244" s="2"/>
       <c r="T244" s="2"/>
     </row>
-    <row r="245" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -15711,7 +15700,7 @@
       <c r="S245" s="2"/>
       <c r="T245" s="2"/>
     </row>
-    <row r="246" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -15731,7 +15720,7 @@
       <c r="S246" s="2"/>
       <c r="T246" s="2"/>
     </row>
-    <row r="247" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -15751,7 +15740,7 @@
       <c r="S247" s="2"/>
       <c r="T247" s="2"/>
     </row>
-    <row r="248" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -15771,7 +15760,7 @@
       <c r="S248" s="2"/>
       <c r="T248" s="2"/>
     </row>
-    <row r="249" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -15791,7 +15780,7 @@
       <c r="S249" s="2"/>
       <c r="T249" s="2"/>
     </row>
-    <row r="250" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -15811,7 +15800,7 @@
       <c r="S250" s="2"/>
       <c r="T250" s="2"/>
     </row>
-    <row r="251" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -15831,7 +15820,7 @@
       <c r="S251" s="2"/>
       <c r="T251" s="2"/>
     </row>
-    <row r="252" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -15851,7 +15840,7 @@
       <c r="S252" s="2"/>
       <c r="T252" s="2"/>
     </row>
-    <row r="253" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -15871,7 +15860,7 @@
       <c r="S253" s="2"/>
       <c r="T253" s="2"/>
     </row>
-    <row r="254" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -15891,7 +15880,7 @@
       <c r="S254" s="2"/>
       <c r="T254" s="2"/>
     </row>
-    <row r="255" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -15911,7 +15900,7 @@
       <c r="S255" s="2"/>
       <c r="T255" s="2"/>
     </row>
-    <row r="256" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -15931,7 +15920,7 @@
       <c r="S256" s="2"/>
       <c r="T256" s="2"/>
     </row>
-    <row r="257" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -15951,7 +15940,7 @@
       <c r="S257" s="2"/>
       <c r="T257" s="2"/>
     </row>
-    <row r="258" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -15971,7 +15960,7 @@
       <c r="S258" s="2"/>
       <c r="T258" s="2"/>
     </row>
-    <row r="259" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -15991,7 +15980,7 @@
       <c r="S259" s="2"/>
       <c r="T259" s="2"/>
     </row>
-    <row r="260" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -16011,7 +16000,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -16031,7 +16020,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -16051,7 +16040,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -16071,7 +16060,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -16091,7 +16080,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -16111,7 +16100,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -16131,7 +16120,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -16151,7 +16140,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -16171,7 +16160,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -16191,7 +16180,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -16211,7 +16200,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -16231,7 +16220,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -16251,7 +16240,7 @@
       <c r="S272" s="2"/>
       <c r="T272" s="2"/>
     </row>
-    <row r="273" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -16271,7 +16260,7 @@
       <c r="S273" s="2"/>
       <c r="T273" s="2"/>
     </row>
-    <row r="274" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -16291,7 +16280,7 @@
       <c r="S274" s="2"/>
       <c r="T274" s="2"/>
     </row>
-    <row r="275" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -16311,7 +16300,7 @@
       <c r="S275" s="2"/>
       <c r="T275" s="2"/>
     </row>
-    <row r="276" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -16331,7 +16320,7 @@
       <c r="S276" s="2"/>
       <c r="T276" s="2"/>
     </row>
-    <row r="277" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -16351,7 +16340,7 @@
       <c r="S277" s="2"/>
       <c r="T277" s="2"/>
     </row>
-    <row r="278" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -16371,7 +16360,7 @@
       <c r="S278" s="2"/>
       <c r="T278" s="2"/>
     </row>
-    <row r="279" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -16391,7 +16380,7 @@
       <c r="S279" s="2"/>
       <c r="T279" s="2"/>
     </row>
-    <row r="280" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -16411,7 +16400,7 @@
       <c r="S280" s="2"/>
       <c r="T280" s="2"/>
     </row>
-    <row r="281" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -16431,7 +16420,7 @@
       <c r="S281" s="2"/>
       <c r="T281" s="2"/>
     </row>
-    <row r="282" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -16451,7 +16440,7 @@
       <c r="S282" s="2"/>
       <c r="T282" s="2"/>
     </row>
-    <row r="283" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -16471,7 +16460,7 @@
       <c r="S283" s="2"/>
       <c r="T283" s="2"/>
     </row>
-    <row r="284" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -16491,7 +16480,7 @@
       <c r="S284" s="2"/>
       <c r="T284" s="2"/>
     </row>
-    <row r="285" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -16511,7 +16500,7 @@
       <c r="S285" s="2"/>
       <c r="T285" s="2"/>
     </row>
-    <row r="286" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -16531,7 +16520,7 @@
       <c r="S286" s="2"/>
       <c r="T286" s="2"/>
     </row>
-    <row r="287" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -16551,7 +16540,7 @@
       <c r="S287" s="2"/>
       <c r="T287" s="2"/>
     </row>
-    <row r="288" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -16571,7 +16560,7 @@
       <c r="S288" s="2"/>
       <c r="T288" s="2"/>
     </row>
-    <row r="289" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -16591,7 +16580,7 @@
       <c r="S289" s="2"/>
       <c r="T289" s="2"/>
     </row>
-    <row r="290" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -16611,7 +16600,7 @@
       <c r="S290" s="2"/>
       <c r="T290" s="2"/>
     </row>
-    <row r="291" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -16631,7 +16620,7 @@
       <c r="S291" s="2"/>
       <c r="T291" s="2"/>
     </row>
-    <row r="292" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -16651,7 +16640,7 @@
       <c r="S292" s="2"/>
       <c r="T292" s="2"/>
     </row>
-    <row r="293" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -16671,7 +16660,7 @@
       <c r="S293" s="2"/>
       <c r="T293" s="2"/>
     </row>
-    <row r="294" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -16691,7 +16680,7 @@
       <c r="S294" s="2"/>
       <c r="T294" s="2"/>
     </row>
-    <row r="295" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -16711,7 +16700,7 @@
       <c r="S295" s="2"/>
       <c r="T295" s="2"/>
     </row>
-    <row r="296" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -16731,7 +16720,7 @@
       <c r="S296" s="2"/>
       <c r="T296" s="2"/>
     </row>
-    <row r="297" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -16751,7 +16740,7 @@
       <c r="S297" s="2"/>
       <c r="T297" s="2"/>
     </row>
-    <row r="298" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -16771,7 +16760,7 @@
       <c r="S298" s="2"/>
       <c r="T298" s="2"/>
     </row>
-    <row r="299" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -16791,7 +16780,7 @@
       <c r="S299" s="2"/>
       <c r="T299" s="2"/>
     </row>
-    <row r="300" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -16811,7 +16800,7 @@
       <c r="S300" s="2"/>
       <c r="T300" s="2"/>
     </row>
-    <row r="301" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -16831,7 +16820,7 @@
       <c r="S301" s="2"/>
       <c r="T301" s="2"/>
     </row>
-    <row r="302" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -16851,7 +16840,7 @@
       <c r="S302" s="2"/>
       <c r="T302" s="2"/>
     </row>
-    <row r="303" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -16871,7 +16860,7 @@
       <c r="S303" s="2"/>
       <c r="T303" s="2"/>
     </row>
-    <row r="304" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -16891,7 +16880,7 @@
       <c r="S304" s="2"/>
       <c r="T304" s="2"/>
     </row>
-    <row r="305" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -16911,7 +16900,7 @@
       <c r="S305" s="2"/>
       <c r="T305" s="2"/>
     </row>
-    <row r="306" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -16931,7 +16920,7 @@
       <c r="S306" s="2"/>
       <c r="T306" s="2"/>
     </row>
-    <row r="307" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -16951,7 +16940,7 @@
       <c r="S307" s="2"/>
       <c r="T307" s="2"/>
     </row>
-    <row r="308" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -16971,7 +16960,7 @@
       <c r="S308" s="2"/>
       <c r="T308" s="2"/>
     </row>
-    <row r="309" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -16991,7 +16980,7 @@
       <c r="S309" s="2"/>
       <c r="T309" s="2"/>
     </row>
-    <row r="310" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -17011,7 +17000,7 @@
       <c r="S310" s="2"/>
       <c r="T310" s="2"/>
     </row>
-    <row r="311" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -17031,7 +17020,7 @@
       <c r="S311" s="2"/>
       <c r="T311" s="2"/>
     </row>
-    <row r="312" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -17051,7 +17040,7 @@
       <c r="S312" s="2"/>
       <c r="T312" s="2"/>
     </row>
-    <row r="313" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -17071,7 +17060,7 @@
       <c r="S313" s="2"/>
       <c r="T313" s="2"/>
     </row>
-    <row r="314" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -17091,7 +17080,7 @@
       <c r="S314" s="2"/>
       <c r="T314" s="2"/>
     </row>
-    <row r="315" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -17111,7 +17100,7 @@
       <c r="S315" s="2"/>
       <c r="T315" s="2"/>
     </row>
-    <row r="316" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -17131,7 +17120,7 @@
       <c r="S316" s="2"/>
       <c r="T316" s="2"/>
     </row>
-    <row r="317" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -17151,7 +17140,7 @@
       <c r="S317" s="2"/>
       <c r="T317" s="2"/>
     </row>
-    <row r="318" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -17171,7 +17160,7 @@
       <c r="S318" s="2"/>
       <c r="T318" s="2"/>
     </row>
-    <row r="319" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -17191,7 +17180,7 @@
       <c r="S319" s="2"/>
       <c r="T319" s="2"/>
     </row>
-    <row r="320" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -17211,7 +17200,7 @@
       <c r="S320" s="2"/>
       <c r="T320" s="2"/>
     </row>
-    <row r="321" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -17231,7 +17220,7 @@
       <c r="S321" s="2"/>
       <c r="T321" s="2"/>
     </row>
-    <row r="322" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -17251,7 +17240,7 @@
       <c r="S322" s="2"/>
       <c r="T322" s="2"/>
     </row>
-    <row r="323" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -17271,7 +17260,7 @@
       <c r="S323" s="2"/>
       <c r="T323" s="2"/>
     </row>
-    <row r="324" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -17291,7 +17280,7 @@
       <c r="S324" s="2"/>
       <c r="T324" s="2"/>
     </row>
-    <row r="325" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -17311,7 +17300,7 @@
       <c r="S325" s="2"/>
       <c r="T325" s="2"/>
     </row>
-    <row r="326" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -17331,7 +17320,7 @@
       <c r="S326" s="2"/>
       <c r="T326" s="2"/>
     </row>
-    <row r="327" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -17351,7 +17340,7 @@
       <c r="S327" s="2"/>
       <c r="T327" s="2"/>
     </row>
-    <row r="328" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -17371,7 +17360,7 @@
       <c r="S328" s="2"/>
       <c r="T328" s="2"/>
     </row>
-    <row r="329" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -17391,7 +17380,7 @@
       <c r="S329" s="2"/>
       <c r="T329" s="2"/>
     </row>
-    <row r="330" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -17411,7 +17400,7 @@
       <c r="S330" s="2"/>
       <c r="T330" s="2"/>
     </row>
-    <row r="331" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -17431,7 +17420,7 @@
       <c r="S331" s="2"/>
       <c r="T331" s="2"/>
     </row>
-    <row r="332" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -17451,7 +17440,7 @@
       <c r="S332" s="2"/>
       <c r="T332" s="2"/>
     </row>
-    <row r="333" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -17471,7 +17460,7 @@
       <c r="S333" s="2"/>
       <c r="T333" s="2"/>
     </row>
-    <row r="334" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -17491,7 +17480,7 @@
       <c r="S334" s="2"/>
       <c r="T334" s="2"/>
     </row>
-    <row r="335" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -17511,7 +17500,7 @@
       <c r="S335" s="2"/>
       <c r="T335" s="2"/>
     </row>
-    <row r="336" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -17531,7 +17520,7 @@
       <c r="S336" s="2"/>
       <c r="T336" s="2"/>
     </row>
-    <row r="337" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -17551,7 +17540,7 @@
       <c r="S337" s="2"/>
       <c r="T337" s="2"/>
     </row>
-    <row r="338" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -17571,7 +17560,7 @@
       <c r="S338" s="2"/>
       <c r="T338" s="2"/>
     </row>
-    <row r="339" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -17591,7 +17580,7 @@
       <c r="S339" s="2"/>
       <c r="T339" s="2"/>
     </row>
-    <row r="340" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -17611,7 +17600,7 @@
       <c r="S340" s="2"/>
       <c r="T340" s="2"/>
     </row>
-    <row r="341" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -17631,7 +17620,7 @@
       <c r="S341" s="2"/>
       <c r="T341" s="2"/>
     </row>
-    <row r="342" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -17651,7 +17640,7 @@
       <c r="S342" s="2"/>
       <c r="T342" s="2"/>
     </row>
-    <row r="343" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -17671,7 +17660,7 @@
       <c r="S343" s="2"/>
       <c r="T343" s="2"/>
     </row>
-    <row r="344" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -17691,7 +17680,7 @@
       <c r="S344" s="2"/>
       <c r="T344" s="2"/>
     </row>
-    <row r="345" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -17711,7 +17700,7 @@
       <c r="S345" s="2"/>
       <c r="T345" s="2"/>
     </row>
-    <row r="346" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -17731,7 +17720,7 @@
       <c r="S346" s="2"/>
       <c r="T346" s="2"/>
     </row>
-    <row r="347" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -17751,7 +17740,7 @@
       <c r="S347" s="2"/>
       <c r="T347" s="2"/>
     </row>
-    <row r="348" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -17771,7 +17760,7 @@
       <c r="S348" s="2"/>
       <c r="T348" s="2"/>
     </row>
-    <row r="349" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -17791,7 +17780,7 @@
       <c r="S349" s="2"/>
       <c r="T349" s="2"/>
     </row>
-    <row r="350" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -17811,7 +17800,7 @@
       <c r="S350" s="2"/>
       <c r="T350" s="2"/>
     </row>
-    <row r="351" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -17831,7 +17820,7 @@
       <c r="S351" s="2"/>
       <c r="T351" s="2"/>
     </row>
-    <row r="352" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -17851,7 +17840,7 @@
       <c r="S352" s="2"/>
       <c r="T352" s="2"/>
     </row>
-    <row r="353" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -17871,7 +17860,7 @@
       <c r="S353" s="2"/>
       <c r="T353" s="2"/>
     </row>
-    <row r="354" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -17891,7 +17880,7 @@
       <c r="S354" s="2"/>
       <c r="T354" s="2"/>
     </row>
-    <row r="355" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -17911,7 +17900,7 @@
       <c r="S355" s="2"/>
       <c r="T355" s="2"/>
     </row>
-    <row r="356" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -17931,7 +17920,7 @@
       <c r="S356" s="2"/>
       <c r="T356" s="2"/>
     </row>
-    <row r="357" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -17951,7 +17940,7 @@
       <c r="S357" s="2"/>
       <c r="T357" s="2"/>
     </row>
-    <row r="358" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -17971,7 +17960,7 @@
       <c r="S358" s="2"/>
       <c r="T358" s="2"/>
     </row>
-    <row r="359" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -17991,7 +17980,7 @@
       <c r="S359" s="2"/>
       <c r="T359" s="2"/>
     </row>
-    <row r="360" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -18011,7 +18000,7 @@
       <c r="S360" s="2"/>
       <c r="T360" s="2"/>
     </row>
-    <row r="361" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -18031,7 +18020,7 @@
       <c r="S361" s="2"/>
       <c r="T361" s="2"/>
     </row>
-    <row r="362" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -18051,7 +18040,7 @@
       <c r="S362" s="2"/>
       <c r="T362" s="2"/>
     </row>
-    <row r="363" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -18071,7 +18060,7 @@
       <c r="S363" s="2"/>
       <c r="T363" s="2"/>
     </row>
-    <row r="364" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -18091,7 +18080,7 @@
       <c r="S364" s="2"/>
       <c r="T364" s="2"/>
     </row>
-    <row r="365" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -18111,7 +18100,7 @@
       <c r="S365" s="2"/>
       <c r="T365" s="2"/>
     </row>
-    <row r="366" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -18131,7 +18120,7 @@
       <c r="S366" s="2"/>
       <c r="T366" s="2"/>
     </row>
-    <row r="367" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -18151,7 +18140,7 @@
       <c r="S367" s="2"/>
       <c r="T367" s="2"/>
     </row>
-    <row r="368" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -18171,7 +18160,7 @@
       <c r="S368" s="2"/>
       <c r="T368" s="2"/>
     </row>
-    <row r="369" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -18191,7 +18180,7 @@
       <c r="S369" s="2"/>
       <c r="T369" s="2"/>
     </row>
-    <row r="370" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -18211,7 +18200,7 @@
       <c r="S370" s="2"/>
       <c r="T370" s="2"/>
     </row>
-    <row r="371" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -18231,7 +18220,7 @@
       <c r="S371" s="2"/>
       <c r="T371" s="2"/>
     </row>
-    <row r="372" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -18251,7 +18240,7 @@
       <c r="S372" s="2"/>
       <c r="T372" s="2"/>
     </row>
-    <row r="373" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -18271,7 +18260,7 @@
       <c r="S373" s="2"/>
       <c r="T373" s="2"/>
     </row>
-    <row r="374" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -18291,7 +18280,7 @@
       <c r="S374" s="2"/>
       <c r="T374" s="2"/>
     </row>
-    <row r="375" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -18311,7 +18300,7 @@
       <c r="S375" s="2"/>
       <c r="T375" s="2"/>
     </row>
-    <row r="376" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -18331,7 +18320,7 @@
       <c r="S376" s="2"/>
       <c r="T376" s="2"/>
     </row>
-    <row r="377" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -18351,7 +18340,7 @@
       <c r="S377" s="2"/>
       <c r="T377" s="2"/>
     </row>
-    <row r="378" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -18371,7 +18360,7 @@
       <c r="S378" s="2"/>
       <c r="T378" s="2"/>
     </row>
-    <row r="379" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -18391,7 +18380,7 @@
       <c r="S379" s="2"/>
       <c r="T379" s="2"/>
     </row>
-    <row r="380" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -18411,7 +18400,7 @@
       <c r="S380" s="2"/>
       <c r="T380" s="2"/>
     </row>
-    <row r="381" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -18431,7 +18420,7 @@
       <c r="S381" s="2"/>
       <c r="T381" s="2"/>
     </row>
-    <row r="382" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -18451,7 +18440,7 @@
       <c r="S382" s="2"/>
       <c r="T382" s="2"/>
     </row>
-    <row r="383" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -18471,7 +18460,7 @@
       <c r="S383" s="2"/>
       <c r="T383" s="2"/>
     </row>
-    <row r="384" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -18491,7 +18480,7 @@
       <c r="S384" s="2"/>
       <c r="T384" s="2"/>
     </row>
-    <row r="385" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -18511,7 +18500,7 @@
       <c r="S385" s="2"/>
       <c r="T385" s="2"/>
     </row>
-    <row r="386" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -18531,7 +18520,7 @@
       <c r="S386" s="2"/>
       <c r="T386" s="2"/>
     </row>
-    <row r="387" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -18551,7 +18540,7 @@
       <c r="S387" s="2"/>
       <c r="T387" s="2"/>
     </row>
-    <row r="388" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -18571,7 +18560,7 @@
       <c r="S388" s="2"/>
       <c r="T388" s="2"/>
     </row>
-    <row r="389" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -18591,7 +18580,7 @@
       <c r="S389" s="2"/>
       <c r="T389" s="2"/>
     </row>
-    <row r="390" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -18611,7 +18600,7 @@
       <c r="S390" s="2"/>
       <c r="T390" s="2"/>
     </row>
-    <row r="391" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -18631,7 +18620,7 @@
       <c r="S391" s="2"/>
       <c r="T391" s="2"/>
     </row>
-    <row r="392" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -18651,7 +18640,7 @@
       <c r="S392" s="2"/>
       <c r="T392" s="2"/>
     </row>
-    <row r="393" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -18671,7 +18660,7 @@
       <c r="S393" s="2"/>
       <c r="T393" s="2"/>
     </row>
-    <row r="394" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -18691,7 +18680,7 @@
       <c r="S394" s="2"/>
       <c r="T394" s="2"/>
     </row>
-    <row r="395" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -18711,7 +18700,7 @@
       <c r="S395" s="2"/>
       <c r="T395" s="2"/>
     </row>
-    <row r="396" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -18731,7 +18720,7 @@
       <c r="S396" s="2"/>
       <c r="T396" s="2"/>
     </row>
-    <row r="397" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -18751,7 +18740,7 @@
       <c r="S397" s="2"/>
       <c r="T397" s="2"/>
     </row>
-    <row r="398" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -18771,7 +18760,7 @@
       <c r="S398" s="2"/>
       <c r="T398" s="2"/>
     </row>
-    <row r="399" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -18791,7 +18780,7 @@
       <c r="S399" s="2"/>
       <c r="T399" s="2"/>
     </row>
-    <row r="400" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -18811,7 +18800,7 @@
       <c r="S400" s="2"/>
       <c r="T400" s="2"/>
     </row>
-    <row r="401" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -18831,7 +18820,7 @@
       <c r="S401" s="2"/>
       <c r="T401" s="2"/>
     </row>
-    <row r="402" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -18851,7 +18840,7 @@
       <c r="S402" s="2"/>
       <c r="T402" s="2"/>
     </row>
-    <row r="403" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -18871,7 +18860,7 @@
       <c r="S403" s="2"/>
       <c r="T403" s="2"/>
     </row>
-    <row r="404" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
@@ -18891,7 +18880,7 @@
       <c r="S404" s="2"/>
       <c r="T404" s="2"/>
     </row>
-    <row r="405" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -18911,7 +18900,7 @@
       <c r="S405" s="2"/>
       <c r="T405" s="2"/>
     </row>
-    <row r="406" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -18931,7 +18920,7 @@
       <c r="S406" s="2"/>
       <c r="T406" s="2"/>
     </row>
-    <row r="407" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="407" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -18951,7 +18940,7 @@
       <c r="S407" s="2"/>
       <c r="T407" s="2"/>
     </row>
-    <row r="408" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="408" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
@@ -18971,7 +18960,7 @@
       <c r="S408" s="2"/>
       <c r="T408" s="2"/>
     </row>
-    <row r="409" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="409" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
@@ -18991,7 +18980,7 @@
       <c r="S409" s="2"/>
       <c r="T409" s="2"/>
     </row>
-    <row r="410" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="410" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -19011,7 +19000,7 @@
       <c r="S410" s="2"/>
       <c r="T410" s="2"/>
     </row>
-    <row r="411" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="411" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
@@ -19031,7 +19020,7 @@
       <c r="S411" s="2"/>
       <c r="T411" s="2"/>
     </row>
-    <row r="412" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="412" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -19051,7 +19040,7 @@
       <c r="S412" s="2"/>
       <c r="T412" s="2"/>
     </row>
-    <row r="413" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="413" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
@@ -19071,7 +19060,7 @@
       <c r="S413" s="2"/>
       <c r="T413" s="2"/>
     </row>
-    <row r="414" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="414" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -19091,7 +19080,7 @@
       <c r="S414" s="2"/>
       <c r="T414" s="2"/>
     </row>
-    <row r="415" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -19111,7 +19100,7 @@
       <c r="S415" s="2"/>
       <c r="T415" s="2"/>
     </row>
-    <row r="416" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -19131,7 +19120,7 @@
       <c r="S416" s="2"/>
       <c r="T416" s="2"/>
     </row>
-    <row r="417" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -19151,7 +19140,7 @@
       <c r="S417" s="2"/>
       <c r="T417" s="2"/>
     </row>
-    <row r="418" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -19171,7 +19160,7 @@
       <c r="S418" s="2"/>
       <c r="T418" s="2"/>
     </row>
-    <row r="419" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -19191,7 +19180,7 @@
       <c r="S419" s="2"/>
       <c r="T419" s="2"/>
     </row>
-    <row r="420" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -19211,7 +19200,7 @@
       <c r="S420" s="2"/>
       <c r="T420" s="2"/>
     </row>
-    <row r="421" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
@@ -19231,7 +19220,7 @@
       <c r="S421" s="2"/>
       <c r="T421" s="2"/>
     </row>
-    <row r="422" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -19251,7 +19240,7 @@
       <c r="S422" s="2"/>
       <c r="T422" s="2"/>
     </row>
-    <row r="423" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -19271,7 +19260,7 @@
       <c r="S423" s="2"/>
       <c r="T423" s="2"/>
     </row>
-    <row r="424" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -19291,7 +19280,7 @@
       <c r="S424" s="2"/>
       <c r="T424" s="2"/>
     </row>
-    <row r="425" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -19311,7 +19300,7 @@
       <c r="S425" s="2"/>
       <c r="T425" s="2"/>
     </row>
-    <row r="426" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -19331,7 +19320,7 @@
       <c r="S426" s="2"/>
       <c r="T426" s="2"/>
     </row>
-    <row r="427" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -19351,7 +19340,7 @@
       <c r="S427" s="2"/>
       <c r="T427" s="2"/>
     </row>
-    <row r="428" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -19371,7 +19360,7 @@
       <c r="S428" s="2"/>
       <c r="T428" s="2"/>
     </row>
-    <row r="429" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -19391,7 +19380,7 @@
       <c r="S429" s="2"/>
       <c r="T429" s="2"/>
     </row>
-    <row r="430" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -19411,7 +19400,7 @@
       <c r="S430" s="2"/>
       <c r="T430" s="2"/>
     </row>
-    <row r="431" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -19431,7 +19420,7 @@
       <c r="S431" s="2"/>
       <c r="T431" s="2"/>
     </row>
-    <row r="432" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -19451,7 +19440,7 @@
       <c r="S432" s="2"/>
       <c r="T432" s="2"/>
     </row>
-    <row r="433" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="433" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -19471,7 +19460,7 @@
       <c r="S433" s="2"/>
       <c r="T433" s="2"/>
     </row>
-    <row r="434" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="434" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -19491,7 +19480,7 @@
       <c r="S434" s="2"/>
       <c r="T434" s="2"/>
     </row>
-    <row r="435" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -19511,7 +19500,7 @@
       <c r="S435" s="2"/>
       <c r="T435" s="2"/>
     </row>
-    <row r="436" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -19531,7 +19520,7 @@
       <c r="S436" s="2"/>
       <c r="T436" s="2"/>
     </row>
-    <row r="437" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -19551,7 +19540,7 @@
       <c r="S437" s="2"/>
       <c r="T437" s="2"/>
     </row>
-    <row r="438" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -19571,7 +19560,7 @@
       <c r="S438" s="2"/>
       <c r="T438" s="2"/>
     </row>
-    <row r="439" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -19591,7 +19580,7 @@
       <c r="S439" s="2"/>
       <c r="T439" s="2"/>
     </row>
-    <row r="440" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -19611,7 +19600,7 @@
       <c r="S440" s="2"/>
       <c r="T440" s="2"/>
     </row>
-    <row r="441" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -19631,7 +19620,7 @@
       <c r="S441" s="2"/>
       <c r="T441" s="2"/>
     </row>
-    <row r="442" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -19651,7 +19640,7 @@
       <c r="S442" s="2"/>
       <c r="T442" s="2"/>
     </row>
-    <row r="443" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="443" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -19671,7 +19660,7 @@
       <c r="S443" s="2"/>
       <c r="T443" s="2"/>
     </row>
-    <row r="444" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="444" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -19691,7 +19680,7 @@
       <c r="S444" s="2"/>
       <c r="T444" s="2"/>
     </row>
-    <row r="445" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="445" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -19711,7 +19700,7 @@
       <c r="S445" s="2"/>
       <c r="T445" s="2"/>
     </row>
-    <row r="446" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="446" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -19731,7 +19720,7 @@
       <c r="S446" s="2"/>
       <c r="T446" s="2"/>
     </row>
-    <row r="447" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="447" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -19751,7 +19740,7 @@
       <c r="S447" s="2"/>
       <c r="T447" s="2"/>
     </row>
-    <row r="448" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="448" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -19771,7 +19760,7 @@
       <c r="S448" s="2"/>
       <c r="T448" s="2"/>
     </row>
-    <row r="449" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="449" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -19791,7 +19780,7 @@
       <c r="S449" s="2"/>
       <c r="T449" s="2"/>
     </row>
-    <row r="450" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="450" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -19811,7 +19800,7 @@
       <c r="S450" s="2"/>
       <c r="T450" s="2"/>
     </row>
-    <row r="451" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="451" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -19831,7 +19820,7 @@
       <c r="S451" s="2"/>
       <c r="T451" s="2"/>
     </row>
-    <row r="452" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="452" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -19851,7 +19840,7 @@
       <c r="S452" s="2"/>
       <c r="T452" s="2"/>
     </row>
-    <row r="453" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="453" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -19871,7 +19860,7 @@
       <c r="S453" s="2"/>
       <c r="T453" s="2"/>
     </row>
-    <row r="454" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="454" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -19891,7 +19880,7 @@
       <c r="S454" s="2"/>
       <c r="T454" s="2"/>
     </row>
-    <row r="455" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="455" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
@@ -19911,7 +19900,7 @@
       <c r="S455" s="2"/>
       <c r="T455" s="2"/>
     </row>
-    <row r="456" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="456" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -19931,7 +19920,7 @@
       <c r="S456" s="2"/>
       <c r="T456" s="2"/>
     </row>
-    <row r="457" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="457" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -19951,7 +19940,7 @@
       <c r="S457" s="2"/>
       <c r="T457" s="2"/>
     </row>
-    <row r="458" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="458" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -19971,7 +19960,7 @@
       <c r="S458" s="2"/>
       <c r="T458" s="2"/>
     </row>
-    <row r="459" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="459" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -19991,7 +19980,7 @@
       <c r="S459" s="2"/>
       <c r="T459" s="2"/>
     </row>
-    <row r="460" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="460" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -20011,7 +20000,7 @@
       <c r="S460" s="2"/>
       <c r="T460" s="2"/>
     </row>
-    <row r="461" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="461" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -20031,7 +20020,7 @@
       <c r="S461" s="2"/>
       <c r="T461" s="2"/>
     </row>
-    <row r="462" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="462" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -20051,7 +20040,7 @@
       <c r="S462" s="2"/>
       <c r="T462" s="2"/>
     </row>
-    <row r="463" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="463" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -20071,7 +20060,7 @@
       <c r="S463" s="2"/>
       <c r="T463" s="2"/>
     </row>
-    <row r="464" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="464" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -20091,7 +20080,7 @@
       <c r="S464" s="2"/>
       <c r="T464" s="2"/>
     </row>
-    <row r="465" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="465" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -20111,7 +20100,7 @@
       <c r="S465" s="2"/>
       <c r="T465" s="2"/>
     </row>
-    <row r="466" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="466" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -20131,7 +20120,7 @@
       <c r="S466" s="2"/>
       <c r="T466" s="2"/>
     </row>
-    <row r="467" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="467" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -20151,7 +20140,7 @@
       <c r="S467" s="2"/>
       <c r="T467" s="2"/>
     </row>
-    <row r="468" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="468" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -20171,7 +20160,7 @@
       <c r="S468" s="2"/>
       <c r="T468" s="2"/>
     </row>
-    <row r="469" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="469" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -20193,6 +20182,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C1:J2"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C26:D26"/>
@@ -20207,17 +20207,6 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -20236,9 +20225,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20249,460 +20238,460 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="31.3984375" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="24.3984375" customWidth="1"/>
-    <col min="9" max="9" width="22.09765625" customWidth="1"/>
-    <col min="10" max="10" width="14.59765625" customWidth="1"/>
-    <col min="11" max="11" width="16.8984375" customWidth="1"/>
+    <col min="8" max="8" width="24.375" customWidth="1"/>
+    <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
     <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="13" max="14" width="12.3984375" customWidth="1"/>
+    <col min="13" max="14" width="12.375" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="14.59765625" customWidth="1"/>
-    <col min="17" max="17" width="21.8984375" customWidth="1"/>
-    <col min="18" max="18" width="20.59765625" customWidth="1"/>
-    <col min="19" max="19" width="19.3984375" customWidth="1"/>
-    <col min="20" max="20" width="25.09765625" customWidth="1"/>
-    <col min="21" max="21" width="15.8984375" customWidth="1"/>
+    <col min="16" max="16" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="21.875" customWidth="1"/>
+    <col min="18" max="18" width="20.625" customWidth="1"/>
+    <col min="19" max="19" width="19.375" customWidth="1"/>
+    <col min="20" max="20" width="25.125" customWidth="1"/>
+    <col min="21" max="21" width="15.875" customWidth="1"/>
     <col min="22" max="22" width="14.5" customWidth="1"/>
-    <col min="23" max="23" width="29.3984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.3984375" customWidth="1"/>
-    <col min="25" max="25" width="16.8984375" customWidth="1"/>
-    <col min="26" max="26" width="18.3984375" customWidth="1"/>
-    <col min="27" max="27" width="18.59765625" customWidth="1"/>
+    <col min="23" max="23" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.375" customWidth="1"/>
+    <col min="25" max="25" width="16.875" customWidth="1"/>
+    <col min="26" max="26" width="18.375" customWidth="1"/>
+    <col min="27" max="27" width="18.625" customWidth="1"/>
     <col min="28" max="28" width="14.5" customWidth="1"/>
-    <col min="29" max="29" width="12.3984375" customWidth="1"/>
-    <col min="30" max="47" width="29.3984375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="29.3984375" customWidth="1"/>
-    <col min="49" max="67" width="29.3984375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="29.3984375" customWidth="1"/>
-    <col min="69" max="87" width="29.3984375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.375" customWidth="1"/>
+    <col min="30" max="47" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="29.375" customWidth="1"/>
+    <col min="49" max="67" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="29.375" customWidth="1"/>
+    <col min="69" max="87" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="30.625" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="22.5" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="27" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="152" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-    </row>
-    <row r="3" spans="2:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="90" t="s">
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+    </row>
+    <row r="3" spans="2:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="F4" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="155"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="89" t="s">
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="146"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="87">
+      <c r="C5" s="84">
         <v>1</v>
       </c>
-      <c r="D5" s="83">
+      <c r="D5" s="80">
         <v>32000</v>
       </c>
-      <c r="F5" s="156"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="158"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="89" t="s">
+      <c r="F5" s="147"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="149"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="87">
+      <c r="C6" s="84">
         <v>1</v>
       </c>
-      <c r="D6" s="83">
+      <c r="D6" s="80">
         <v>5000</v>
       </c>
-      <c r="F6" s="156"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="158"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="89" t="s">
+      <c r="F6" s="147"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="149"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="87">
+      <c r="C7" s="84">
         <v>1</v>
       </c>
-      <c r="D7" s="83">
+      <c r="D7" s="80">
         <v>45000</v>
       </c>
-      <c r="F7" s="156"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="158"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="89" t="s">
+      <c r="F7" s="147"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="149"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="87">
+      <c r="C8" s="84">
         <v>1</v>
       </c>
-      <c r="D8" s="83">
+      <c r="D8" s="80">
         <v>12000</v>
       </c>
-      <c r="F8" s="159"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="161"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="91" t="s">
+      <c r="F8" s="150"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="152"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="85">
         <v>1</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="81">
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="108" t="s">
+    <row r="10" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="82" t="str">
+      <c r="C11" s="79" t="str">
         <f>B5</f>
         <v>Carlos dominguez</v>
       </c>
-      <c r="D11" s="82" t="str">
+      <c r="D11" s="79" t="str">
         <f>B6</f>
         <v>Luis diaz</v>
       </c>
-      <c r="E11" s="82" t="str">
+      <c r="E11" s="79" t="str">
         <f>B7</f>
         <v>Claudia Lopez</v>
       </c>
-      <c r="F11" s="82" t="str">
+      <c r="F11" s="79" t="str">
         <f>B8</f>
         <v>Ana Perdomo</v>
       </c>
-      <c r="G11" s="111" t="str">
+      <c r="G11" s="105" t="str">
         <f>B9</f>
         <v>Laura Perez</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="112" t="str">
+    <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="106" t="str">
         <f>Planificación!C9</f>
         <v>FASE  DE ANALISIS</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="84">
         <f>SUM(C13:C16)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="87">
-        <f t="shared" ref="D12:G12" si="0">SUM(D13:D16)</f>
+      <c r="D12" s="84">
+        <f t="shared" ref="D12" si="0">SUM(D13:D16)</f>
         <v>1</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="84">
         <f>SUM(E13:E16)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="87">
+      <c r="F12" s="84">
         <f>SUM(F13:F16)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="113">
+      <c r="G12" s="107">
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="114" t="str">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="175" t="str">
+        <f>Planificación!C10</f>
+        <v>Levantamiento de información</v>
+      </c>
+      <c r="C13" s="98">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="98">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="98">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="98">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="108"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="175" t="str">
         <f>Planificación!C11</f>
         <v>Requerimientos</v>
       </c>
-      <c r="C13" s="104">
+      <c r="C14" s="98">
         <v>0.1</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D14" s="98">
+        <v>0.15</v>
+      </c>
+      <c r="E14" s="98">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="98">
         <v>0.3</v>
       </c>
-      <c r="E13" s="104">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="104">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="115"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="114" t="str">
+      <c r="G14" s="108"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="175" t="str">
         <f>Planificación!C12</f>
         <v>Mapa de Procesos</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C15" s="98">
         <v>0.1</v>
       </c>
-      <c r="D14" s="104">
-        <v>0.15</v>
-      </c>
-      <c r="E14" s="104">
+      <c r="D15" s="98">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="98">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="98">
         <v>0.2</v>
       </c>
-      <c r="F14" s="104">
-        <v>0.3</v>
-      </c>
-      <c r="G14" s="115"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="114" t="str">
+      <c r="G15" s="108"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="175" t="str">
         <f>Planificación!C13</f>
         <v>Calidad Software</v>
       </c>
-      <c r="C15" s="104">
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="104">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="104">
-        <v>0.3</v>
-      </c>
-      <c r="F15" s="104">
-        <v>0.2</v>
-      </c>
-      <c r="G15" s="115"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="114" t="str">
+      <c r="C16" s="98">
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="98">
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="98">
+        <v>0</v>
+      </c>
+      <c r="F16" s="98">
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="108"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="175" t="str">
         <f>Planificación!C14</f>
         <v>Diagrama Gantt/ costos / Recursos</v>
       </c>
-      <c r="C16" s="104">
-        <v>0.7</v>
-      </c>
-      <c r="D16" s="104">
-        <v>0.05</v>
-      </c>
-      <c r="E16" s="104">
-        <v>0</v>
-      </c>
-      <c r="F16" s="104">
-        <v>0.4</v>
-      </c>
-      <c r="G16" s="115"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="112" t="str">
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="108"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="174" t="str">
         <f>Planificación!C15</f>
         <v>FASE DE DISEÑO</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="115"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="114" t="str">
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="108"/>
+      <c r="M18" s="99"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="175" t="str">
         <f>Planificación!C16</f>
         <v>Casos de Uso</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="115"/>
-      <c r="M18" s="105"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="114" t="str">
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="108"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="175" t="str">
         <f>Planificación!C17</f>
         <v>Diagrama de Clases</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="115"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="114" t="str">
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="108"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="175" t="str">
         <f>Planificación!C18</f>
         <v>Diagramas Distribución</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="115"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="114" t="str">
-        <f>Planificación!C18</f>
-        <v>Diagramas Distribución</v>
-      </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="115"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="114" t="str">
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="108"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="175" t="str">
         <f>Planificación!C19</f>
         <v>Diagrama Relacional</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="115"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="114" t="str">
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="108"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="175" t="str">
         <f>Planificación!C20</f>
         <v>Diccionario de Datos</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="115"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="114" t="str">
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="108"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="175" t="str">
         <f>Planificación!C21</f>
         <v>Mockup del sistema</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="115"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="114" t="str">
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="108"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="175" t="str">
         <f>Planificación!C22</f>
         <v>Arquitectura del sistema</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="115"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="112" t="str">
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="108"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="174" t="str">
         <f>Planificación!C23</f>
         <v>FASE DESARROLLO</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="115"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="114" t="str">
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="108"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="175" t="str">
         <f>Planificación!C24</f>
         <v>Desarrollo de interfaces</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="115"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="114" t="str">
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="108"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="175" t="str">
         <f>Planificación!C25</f>
         <v>Desarrollo del sistema</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="115"/>
-    </row>
-    <row r="29" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="112" t="str">
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="108"/>
+    </row>
+    <row r="29" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="174" t="str">
         <f>Planificación!C26</f>
         <v>FASE DE PRUEBAS / INTEGRACIÓN</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="115"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="114" t="str">
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="108"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="175" t="str">
         <f>Planificación!C27</f>
         <v>Pruebas del sistema</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="115"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="103" t="str">
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="108"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="175" t="str">
         <f>Planificación!C28</f>
         <v>Documentación / Manuales</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="116"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="109"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20710,8 +20699,9 @@
     <mergeCell ref="F4:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B12:B19 C11:G11 B21:B31" unlockedFormula="1"/>
+    <ignoredError sqref="B12 C11:G11" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -20720,36 +20710,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="10" max="10" width="14.59765625" customWidth="1"/>
-    <col min="12" max="12" width="13.09765625" customWidth="1"/>
-    <col min="13" max="13" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="13.125" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L2" s="169" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L2" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="165">
+      <c r="M2" s="167">
         <f>M7</f>
         <v>834000</v>
       </c>
-      <c r="N2" s="166"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L3" s="169"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="168"/>
-    </row>
-    <row r="4" spans="2:15" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="N2" s="168"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L3" s="171"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="170"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" s="49"/>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
@@ -20761,35 +20751,35 @@
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="182" t="s">
+      <c r="C5" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="183"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="182" t="s">
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="162" t="s">
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="163"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="170" t="s">
+      <c r="K5" s="165"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="170" t="s">
+      <c r="N5" s="172" t="s">
         <v>0</v>
       </c>
       <c r="O5" s="41" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="46" t="s">
         <v>7</v>
       </c>
@@ -20817,805 +20807,792 @@
       <c r="J6" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="66" t="s">
+      <c r="K6" s="65" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="171"/>
-      <c r="N6" s="171"/>
+      <c r="M6" s="173"/>
+      <c r="N6" s="173"/>
       <c r="O6" s="47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="94" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="91" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="56"/>
       <c r="E7" s="57"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="69">
+      <c r="F7" s="116"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="66">
         <f>M8+M13+M22+M25</f>
         <v>834000</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="66">
         <f>SUM(N8:N28)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="69">
+      <c r="O7" s="66">
         <f>M7-N7</f>
         <v>834000</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="95" t="str">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="176" t="str">
         <f>Planificación!C9</f>
         <v>FASE  DE ANALISIS</v>
       </c>
-      <c r="C8" s="172"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="67">
-        <f>SUM(E9:E12)</f>
+      <c r="C8" s="156"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="180">
+        <f>SUM(E9:E13)</f>
         <v>640000</v>
       </c>
-      <c r="F8" s="178"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="125">
-        <f>SUM(I9:I12)</f>
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="181">
+        <f>SUM(I9:I13)</f>
         <v>120000</v>
       </c>
-      <c r="J8" s="174"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="68">
-        <f>SUM(L9:L12)</f>
+      <c r="J8" s="158"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="178">
+        <f>SUM(L9:L13)</f>
         <v>74000</v>
       </c>
-      <c r="M8" s="71">
+      <c r="M8" s="68">
         <f>E8+I8+L8</f>
         <v>834000</v>
       </c>
-      <c r="N8" s="73"/>
-      <c r="O8" s="77"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="96" t="str">
+      <c r="N8" s="70"/>
+      <c r="O8" s="74"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="177" t="str">
+        <f>Planificación!C10</f>
+        <v>Levantamiento de información</v>
+      </c>
+      <c r="C9" s="58">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="179">
+        <f>C9*D9</f>
+        <v>100000</v>
+      </c>
+      <c r="F9" s="118" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="113">
+        <v>1</v>
+      </c>
+      <c r="H9" s="110">
+        <v>120000</v>
+      </c>
+      <c r="I9" s="182">
+        <f>G9*H9</f>
+        <v>120000</v>
+      </c>
+      <c r="J9" s="114" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="5">
+        <v>4000</v>
+      </c>
+      <c r="L9" s="179">
+        <f>K9</f>
+        <v>4000</v>
+      </c>
+      <c r="M9" s="69">
+        <f>SUM(E9+I9+L9)</f>
+        <v>224000</v>
+      </c>
+      <c r="N9" s="71"/>
+      <c r="O9" s="75">
+        <f t="shared" ref="O9:O28" si="0">M9-N9</f>
+        <v>224000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="177" t="str">
         <f>Planificación!C11</f>
         <v>Requerimientos</v>
       </c>
-      <c r="C9" s="58">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5000</v>
-      </c>
-      <c r="E9" s="59">
-        <f>C9*D9</f>
-        <v>100000</v>
-      </c>
-      <c r="F9" s="126" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="120">
-        <v>1</v>
-      </c>
-      <c r="H9" s="117">
-        <v>120000</v>
-      </c>
-      <c r="I9" s="127">
-        <f>G9*H9</f>
-        <v>120000</v>
-      </c>
-      <c r="J9" s="121" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="5">
-        <v>4000</v>
-      </c>
-      <c r="L9" s="59">
-        <f>K9</f>
-        <v>4000</v>
-      </c>
-      <c r="M9" s="72">
-        <f>SUM(E9+I9+L9)</f>
-        <v>224000</v>
-      </c>
-      <c r="N9" s="74"/>
-      <c r="O9" s="78">
-        <f t="shared" ref="O9:O28" si="0">M9-N9</f>
-        <v>224000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="96" t="str">
+      <c r="C10" s="58">
+        <v>90</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6000</v>
+      </c>
+      <c r="E10" s="179">
+        <f t="shared" ref="E10:E27" si="1">C10*D10</f>
+        <v>540000</v>
+      </c>
+      <c r="F10" s="118"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="182">
+        <f t="shared" ref="I10:I12" si="2">G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="114" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="5">
+        <v>70000</v>
+      </c>
+      <c r="L10" s="179">
+        <f t="shared" ref="L10:L13" si="3">K10</f>
+        <v>70000</v>
+      </c>
+      <c r="M10" s="69">
+        <f>SUM(E10+I10+L10)</f>
+        <v>610000</v>
+      </c>
+      <c r="N10" s="71"/>
+      <c r="O10" s="75">
+        <f t="shared" si="0"/>
+        <v>610000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="177" t="str">
         <f>Planificación!C12</f>
         <v>Mapa de Procesos</v>
       </c>
-      <c r="C10" s="58">
-        <v>90</v>
-      </c>
-      <c r="D10" s="5">
-        <v>6000</v>
-      </c>
-      <c r="E10" s="59">
-        <f t="shared" ref="E10:E27" si="1">C10*D10</f>
-        <v>540000</v>
-      </c>
-      <c r="F10" s="126"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="127">
-        <f t="shared" ref="I10:I12" si="2">G10*H10</f>
+      <c r="C11" s="58"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="179">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="5">
-        <v>70000</v>
-      </c>
-      <c r="L10" s="59">
-        <f t="shared" ref="L10:L12" si="3">K10</f>
-        <v>70000</v>
-      </c>
-      <c r="M10" s="72">
-        <f t="shared" ref="M10:M27" si="4">SUM(E10+I10+L10)</f>
-        <v>610000</v>
-      </c>
-      <c r="N10" s="74"/>
-      <c r="O10" s="78">
+      <c r="F11" s="118"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="114"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="179">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="69">
+        <f t="shared" ref="M11:M25" si="4">SUM(E11+I11+L11)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="71"/>
+      <c r="O11" s="75">
         <f t="shared" si="0"/>
-        <v>610000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="96" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="177" t="str">
         <f>Planificación!C13</f>
         <v>Calidad Software</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="59">
+      <c r="C12" s="58"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="127">
+      <c r="F12" s="118"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="182">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="121"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="59">
+      <c r="J12" s="114"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="179">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M11" s="72">
+      <c r="M12" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N11" s="74"/>
-      <c r="O11" s="78">
+      <c r="N12" s="71"/>
+      <c r="O12" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="96" t="str">
+    <row r="13" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="177" t="str">
         <f>Planificación!C14</f>
         <v>Diagrama Gantt/ costos / Recursos</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="59">
+      <c r="E13" s="183"/>
+      <c r="I13" s="183"/>
+      <c r="L13" s="179">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="71"/>
+      <c r="O13" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="176" t="str">
+        <f>Planificación!C15</f>
+        <v>FASE DE DISEÑO</v>
+      </c>
+      <c r="C14" s="156"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="180">
+        <f ca="1">SUM(E14:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="162"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="181">
+        <f ca="1">SUM(I14:I21)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="162"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="181">
+        <f ca="1">SUM(L14:L21)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="76">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="71"/>
+      <c r="O14" s="75" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="177" t="str">
+        <f>Planificación!C16</f>
+        <v>Casos de Uso</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="126"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="127">
-        <f t="shared" si="2"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="182">
+        <f t="shared" ref="I15:I21" si="5">G15*H15</f>
         <v>0</v>
       </c>
-      <c r="J12" s="121"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="59">
-        <f t="shared" si="3"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="179">
+        <f t="shared" ref="L15:L21" si="6">K15</f>
         <v>0</v>
       </c>
-      <c r="M12" s="72">
+      <c r="M15" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N12" s="74"/>
-      <c r="O12" s="78">
+      <c r="N15" s="71"/>
+      <c r="O15" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="95" t="str">
-        <f>Planificación!C15</f>
-        <v>FASE DE DISEÑO</v>
-      </c>
-      <c r="C13" s="172"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="67">
-        <f>SUM(E14:E21)</f>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="177" t="str">
+        <f>Planificación!C17</f>
+        <v>Diagrama de Clases</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="179">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="180"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="125">
-        <f>SUM(I14:I21)</f>
+      <c r="F16" s="118"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="182">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J13" s="176"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="67">
-        <f>SUM(L14:L21)</f>
+      <c r="J16" s="114"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="179">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M13" s="79">
-        <f>E13+I13+L13</f>
+      <c r="M16" s="69">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N13" s="74"/>
-      <c r="O13" s="78">
+      <c r="N16" s="71"/>
+      <c r="O16" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="96" t="str">
-        <f>Planificación!C16</f>
-        <v>Casos de Uso</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="59">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="177" t="str">
+        <f>Planificación!C18</f>
+        <v>Diagramas Distribución</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="126"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="127">
-        <f>G14*H14</f>
+      <c r="F17" s="118"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="182">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J14" s="121"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="59">
-        <f>K14</f>
+      <c r="J17" s="114"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="179">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M14" s="72">
+      <c r="M17" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N14" s="74"/>
-      <c r="O14" s="78">
+      <c r="N17" s="71"/>
+      <c r="O17" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="96" t="str">
-        <f>Planificación!C17</f>
-        <v>Diagrama de Clases</v>
-      </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="59">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="177" t="str">
+        <f>Planificación!C19</f>
+        <v>Diagrama Relacional</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="126"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="127">
-        <f t="shared" ref="I15:I21" si="5">G15*H15</f>
+      <c r="F18" s="118"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="182">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J15" s="121"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="59">
-        <f t="shared" ref="L15:L21" si="6">K15</f>
+      <c r="J18" s="114"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="179">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M15" s="72">
+      <c r="M18" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N15" s="74"/>
-      <c r="O15" s="78">
+      <c r="N18" s="71"/>
+      <c r="O18" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="96" t="str">
-        <f>Planificación!C18</f>
-        <v>Diagramas Distribución</v>
-      </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="59">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="177" t="str">
+        <f>Planificación!C20</f>
+        <v>Diccionario de Datos</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="126"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="127">
+      <c r="F19" s="118"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="182">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J16" s="121"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="59">
+      <c r="J19" s="114"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="179">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M16" s="72">
+      <c r="M19" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N16" s="74"/>
-      <c r="O16" s="78">
+      <c r="N19" s="71"/>
+      <c r="O19" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="96" t="str">
-        <f>Planificación!C18</f>
-        <v>Diagramas Distribución</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="59">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="177" t="str">
+        <f>Planificación!C21</f>
+        <v>Mockup del sistema</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="127">
+      <c r="F20" s="118"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="182">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J17" s="121"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="59">
+      <c r="J20" s="114"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="179">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M17" s="72">
+      <c r="M20" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N17" s="74"/>
-      <c r="O17" s="78">
+      <c r="N20" s="71"/>
+      <c r="O20" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="96" t="str">
-        <f>Planificación!C19</f>
-        <v>Diagrama Relacional</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="59">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="177" t="str">
+        <f>Planificación!C22</f>
+        <v>Arquitectura del sistema</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="126"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="127">
+      <c r="F21" s="118"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="182">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J18" s="121"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="59">
+      <c r="J21" s="114"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="179">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M18" s="72">
+      <c r="M21" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N18" s="74"/>
-      <c r="O18" s="78">
+      <c r="N21" s="71"/>
+      <c r="O21" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="96" t="str">
-        <f>Planificación!C20</f>
-        <v>Diccionario de Datos</v>
-      </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="59">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="176" t="str">
+        <f>Planificación!C23</f>
+        <v>FASE DESARROLLO</v>
+      </c>
+      <c r="C22" s="156"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="180">
+        <f>SUM(E23:E24)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="162"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="181">
+        <f>SUM(I23:I24)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="162"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="180">
+        <f>SUM(L23:L24)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="71"/>
+      <c r="O22" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="177" t="str">
+        <f>Planificación!C24</f>
+        <v>Desarrollo de interfaces</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="126"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="127">
-        <f t="shared" si="5"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="182">
+        <f>G23*H23</f>
         <v>0</v>
       </c>
-      <c r="J19" s="121"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="59">
-        <f t="shared" si="6"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="179">
+        <f>K23</f>
         <v>0</v>
       </c>
-      <c r="M19" s="72">
+      <c r="M23" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N19" s="74"/>
-      <c r="O19" s="78">
+      <c r="N23" s="71"/>
+      <c r="O23" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="96" t="str">
-        <f>Planificación!C21</f>
-        <v>Mockup del sistema</v>
-      </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="59">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="177" t="str">
+        <f>Planificación!C25</f>
+        <v>Desarrollo del sistema</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="126"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="127">
-        <f t="shared" si="5"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="182">
+        <f>G24*H24</f>
         <v>0</v>
       </c>
-      <c r="J20" s="121"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="59">
-        <f t="shared" si="6"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="179">
+        <f>K24</f>
         <v>0</v>
       </c>
-      <c r="M20" s="72">
+      <c r="M24" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N20" s="74"/>
-      <c r="O20" s="78">
+      <c r="N24" s="71"/>
+      <c r="O24" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="96" t="str">
-        <f>Planificación!C22</f>
-        <v>Arquitectura del sistema</v>
-      </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="59">
+    <row r="25" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="176" t="str">
+        <f>Planificación!C26</f>
+        <v>FASE DE PRUEBAS / INTEGRACIÓN</v>
+      </c>
+      <c r="C25" s="156"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="180">
+        <f>SUM(E26:E27)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="162"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="181">
+        <f>SUM(I26:I27)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="162"/>
+      <c r="K25" s="163"/>
+      <c r="L25" s="180">
+        <f>SUM(L26:L27)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="71"/>
+      <c r="O25" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="177" t="str">
+        <f>Planificación!C27</f>
+        <v>Pruebas del sistema</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="126"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="127">
-        <f t="shared" si="5"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="182">
+        <f>G26*H26</f>
         <v>0</v>
       </c>
-      <c r="J21" s="121"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="59">
-        <f t="shared" si="6"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="179">
+        <f>K26</f>
         <v>0</v>
       </c>
-      <c r="M21" s="72">
-        <f t="shared" si="4"/>
+      <c r="M26" s="69">
+        <f t="shared" ref="M10:M27" si="7">SUM(E26+I26+L26)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="74"/>
-      <c r="O21" s="78">
+      <c r="N26" s="71"/>
+      <c r="O26" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="95" t="str">
-        <f>Planificación!C23</f>
-        <v>FASE DESARROLLO</v>
-      </c>
-      <c r="C22" s="172"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="67">
-        <f>SUM(E23:E24)</f>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="177" t="str">
+        <f>Planificación!C28</f>
+        <v>Documentación / Manuales</v>
+      </c>
+      <c r="C27" s="58"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="179">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="180"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="125">
-        <f>SUM(I23:I24)</f>
+      <c r="F27" s="118"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="182">
+        <f>G27*H27</f>
         <v>0</v>
       </c>
-      <c r="J22" s="176"/>
-      <c r="K22" s="177"/>
-      <c r="L22" s="67">
-        <f>SUM(L23:L24)</f>
+      <c r="J27" s="114"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="179">
+        <f>K27</f>
         <v>0</v>
       </c>
-      <c r="M22" s="79">
-        <f>E22+I22+L22</f>
+      <c r="M27" s="69">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N22" s="74"/>
-      <c r="O22" s="78">
+      <c r="N27" s="71"/>
+      <c r="O27" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="96" t="str">
-        <f>Planificación!C24</f>
-        <v>Desarrollo de interfaces</v>
-      </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="126"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="127">
-        <f>G23*H23</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="121"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="59">
-        <f>K23</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="72">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="74"/>
-      <c r="O23" s="78">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="92"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="96" t="str">
-        <f>Planificación!C25</f>
-        <v>Desarrollo del sistema</v>
-      </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="126"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="127">
-        <f>G24*H24</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="121"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="59">
-        <f>K24</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="72">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="74"/>
-      <c r="O24" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="95" t="str">
-        <f>Planificación!C26</f>
-        <v>FASE DE PRUEBAS / INTEGRACIÓN</v>
-      </c>
-      <c r="C25" s="172"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="67">
-        <f>SUM(E26:E27)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="180"/>
-      <c r="G25" s="181"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="125">
-        <f>SUM(I26:I27)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="176"/>
-      <c r="K25" s="177"/>
-      <c r="L25" s="67">
-        <f>SUM(L26:L27)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="79">
-        <f>E25+I25+L25</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="74"/>
-      <c r="O25" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="96" t="str">
-        <f>Planificación!C27</f>
-        <v>Pruebas del sistema</v>
-      </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="126"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="127">
-        <f>G26*H26</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="121"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="59">
-        <f>K26</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="72">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="74"/>
-      <c r="O26" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="96" t="str">
-        <f>Planificación!C28</f>
-        <v>Documentación / Manuales</v>
-      </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="126"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="127">
-        <f>G27*H27</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="121"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="59">
-        <f>K27</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="72">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="74"/>
-      <c r="O27" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="97"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="93" t="s">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="90" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="53"/>
       <c r="D29" s="54"/>
-      <c r="E29" s="54">
-        <f>E8+E13+E22+E25</f>
+      <c r="E29" s="185">
+        <f ca="1">E8+E14+E22+E25</f>
         <v>640000</v>
       </c>
       <c r="F29" s="54"/>
-      <c r="G29" s="65"/>
+      <c r="G29" s="64"/>
       <c r="H29" s="54"/>
-      <c r="I29" s="54">
-        <f>I8+I13+I22+I25</f>
+      <c r="I29" s="185">
+        <f ca="1">I8+I14+I22+I25</f>
         <v>120000</v>
       </c>
-      <c r="J29" s="65"/>
-      <c r="K29" s="54">
+      <c r="J29" s="64"/>
+      <c r="K29" s="185">
         <f>SUM(K8:K28)</f>
         <v>74000</v>
       </c>
       <c r="L29" s="54"/>
-      <c r="M29" s="70">
-        <f>SUM(M8:M28)</f>
+      <c r="M29" s="67">
+        <f ca="1">SUM(M8:M28)</f>
         <v>1668000</v>
       </c>
-      <c r="N29" s="54">
-        <f>SUM(D29:L29)</f>
+      <c r="N29" s="185">
+        <f ca="1">SUM(D29:L29)</f>
         <v>834000</v>
       </c>
-      <c r="O29" s="76">
-        <f>M29-N29</f>
+      <c r="O29" s="73">
+        <f ca="1">M29-N29</f>
         <v>834000</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="42"/>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="119"/>
+      <c r="F30" s="112"/>
       <c r="G30" s="42"/>
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
@@ -21628,25 +21605,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F25:H25"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="M2:N3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <conditionalFormatting sqref="O29:O30">
     <cfRule type="colorScale" priority="2">
@@ -21674,9 +21651,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B8:B15 B17:B27" unlockedFormula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -21688,110 +21662,110 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.8984375" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.09765625" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" customWidth="1"/>
-    <col min="11" max="11" width="21.09765625" customWidth="1"/>
-    <col min="12" max="12" width="24.09765625" customWidth="1"/>
-    <col min="13" max="13" width="23.59765625" customWidth="1"/>
-    <col min="14" max="15" width="21.09765625" customWidth="1"/>
-    <col min="16" max="16" width="30.8984375" customWidth="1"/>
-    <col min="17" max="17" width="30.3984375" customWidth="1"/>
-    <col min="18" max="18" width="25.69921875" customWidth="1"/>
-    <col min="19" max="19" width="25.19921875" customWidth="1"/>
-    <col min="20" max="20" width="19.69921875" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="21.125" customWidth="1"/>
+    <col min="12" max="12" width="24.125" customWidth="1"/>
+    <col min="13" max="13" width="23.625" customWidth="1"/>
+    <col min="14" max="15" width="21.125" customWidth="1"/>
+    <col min="16" max="16" width="30.875" customWidth="1"/>
+    <col min="17" max="17" width="30.375" customWidth="1"/>
+    <col min="18" max="18" width="25.75" customWidth="1"/>
+    <col min="19" max="19" width="25.25" customWidth="1"/>
+    <col min="20" max="20" width="19.75" customWidth="1"/>
     <col min="21" max="21" width="23.5" customWidth="1"/>
     <col min="22" max="25" width="24.5" customWidth="1"/>
-    <col min="26" max="26" width="31.09765625" customWidth="1"/>
+    <col min="26" max="26" width="31.125" customWidth="1"/>
     <col min="27" max="27" width="23.5" customWidth="1"/>
     <col min="28" max="31" width="24.5" customWidth="1"/>
-    <col min="32" max="32" width="28.59765625" customWidth="1"/>
-    <col min="33" max="33" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="29.59765625" customWidth="1"/>
-    <col min="37" max="37" width="28.59765625" customWidth="1"/>
-    <col min="38" max="41" width="29.59765625" customWidth="1"/>
-    <col min="42" max="42" width="30.09765625" customWidth="1"/>
-    <col min="43" max="46" width="31.09765625" customWidth="1"/>
-    <col min="47" max="51" width="19.69921875" customWidth="1"/>
-    <col min="52" max="52" width="28.59765625" customWidth="1"/>
-    <col min="53" max="56" width="29.59765625" customWidth="1"/>
-    <col min="57" max="57" width="28.59765625" customWidth="1"/>
-    <col min="58" max="58" width="29.59765625" customWidth="1"/>
-    <col min="59" max="61" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.625" customWidth="1"/>
+    <col min="33" max="33" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="29.625" customWidth="1"/>
+    <col min="37" max="37" width="28.625" customWidth="1"/>
+    <col min="38" max="41" width="29.625" customWidth="1"/>
+    <col min="42" max="42" width="30.125" customWidth="1"/>
+    <col min="43" max="46" width="31.125" customWidth="1"/>
+    <col min="47" max="51" width="19.75" customWidth="1"/>
+    <col min="52" max="52" width="28.625" customWidth="1"/>
+    <col min="53" max="56" width="29.625" customWidth="1"/>
+    <col min="57" max="57" width="28.625" customWidth="1"/>
+    <col min="58" max="58" width="29.625" customWidth="1"/>
+    <col min="59" max="61" width="29.625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="34" bestFit="1" customWidth="1"/>
     <col min="63" max="64" width="35" bestFit="1" customWidth="1"/>
     <col min="65" max="66" width="35" customWidth="1"/>
-    <col min="67" max="69" width="19.69921875" customWidth="1"/>
-    <col min="70" max="70" width="19.69921875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="19.69921875" customWidth="1"/>
-    <col min="72" max="72" width="28.59765625" customWidth="1"/>
-    <col min="73" max="73" width="29.59765625" customWidth="1"/>
-    <col min="74" max="76" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="28.59765625" customWidth="1"/>
-    <col min="78" max="78" width="29.59765625" customWidth="1"/>
-    <col min="79" max="81" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="67" max="69" width="19.75" customWidth="1"/>
+    <col min="70" max="70" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="19.75" customWidth="1"/>
+    <col min="72" max="72" width="28.625" customWidth="1"/>
+    <col min="73" max="73" width="29.625" customWidth="1"/>
+    <col min="74" max="76" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="28.625" customWidth="1"/>
+    <col min="78" max="78" width="29.625" customWidth="1"/>
+    <col min="79" max="81" width="29.625" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="26.5" customWidth="1"/>
     <col min="83" max="86" width="27.5" customWidth="1"/>
-    <col min="87" max="89" width="19.69921875" customWidth="1"/>
-    <col min="90" max="91" width="19.69921875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="93" max="96" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="28.59765625" customWidth="1"/>
-    <col min="98" max="101" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="103" max="106" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="30.69921875" bestFit="1" customWidth="1"/>
-    <col min="108" max="111" width="31.8984375" bestFit="1" customWidth="1"/>
-    <col min="112" max="113" width="19.69921875" customWidth="1"/>
-    <col min="114" max="116" width="19.69921875" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="118" max="121" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="123" max="126" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="128" max="131" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="133" max="136" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="87" max="89" width="19.75" customWidth="1"/>
+    <col min="90" max="91" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="93" max="96" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="28.625" customWidth="1"/>
+    <col min="98" max="101" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="103" max="106" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="108" max="111" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="112" max="113" width="19.75" customWidth="1"/>
+    <col min="114" max="116" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="118" max="121" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="123" max="126" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="128" max="131" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="133" max="136" width="29.625" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="23.5" bestFit="1" customWidth="1"/>
     <col min="138" max="141" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B24" s="107"/>
-      <c r="C24" s="105"/>
-      <c r="Z24" s="105"/>
-      <c r="AA24" s="105"/>
-      <c r="AB24" s="105"/>
-      <c r="AC24" s="105"/>
-      <c r="AD24" s="105"/>
-      <c r="AE24" s="105"/>
-    </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B25" s="107"/>
-      <c r="C25" s="105"/>
-    </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B26" s="107"/>
-      <c r="C26" s="105"/>
-    </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B27" s="107"/>
-      <c r="C27" s="109"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="106" t="s">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B24" s="101"/>
+      <c r="C24" s="99"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="99"/>
+      <c r="AD24" s="99"/>
+      <c r="AE24" s="99"/>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B25" s="101"/>
+      <c r="C25" s="99"/>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B26" s="101"/>
+      <c r="C26" s="99"/>
+    </row>
+    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B27" s="101"/>
+      <c r="C27" s="103"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="100" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="106" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="100" t="s">
         <v>71</v>
       </c>
       <c r="B39" t="s">
@@ -21810,83 +21784,83 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="107" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="109">
+      <c r="B40" s="103">
         <v>0.10000000000000002</v>
       </c>
-      <c r="C40" s="109">
+      <c r="C40" s="103">
         <v>0.70000000000000007</v>
       </c>
-      <c r="D40" s="109">
+      <c r="D40" s="103">
         <v>0.10000000000000002</v>
       </c>
-      <c r="E40" s="109">
+      <c r="E40" s="103">
         <v>0.10000000000000002</v>
       </c>
-      <c r="F40" s="109">
+      <c r="F40" s="103">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="107" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="109">
+      <c r="B41" s="103">
         <v>0.5</v>
       </c>
-      <c r="C41" s="109">
+      <c r="C41" s="103">
         <v>0.05</v>
       </c>
-      <c r="D41" s="109">
+      <c r="D41" s="103">
         <v>0.15</v>
       </c>
-      <c r="E41" s="109">
+      <c r="E41" s="103">
         <v>0.3</v>
       </c>
-      <c r="F41" s="109">
+      <c r="F41" s="103">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="107" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="109">
+      <c r="B42" s="103">
         <v>0.3</v>
       </c>
-      <c r="C42" s="109">
+      <c r="C42" s="103">
         <v>0</v>
       </c>
-      <c r="D42" s="109">
+      <c r="D42" s="103">
         <v>0.2</v>
       </c>
-      <c r="E42" s="109">
+      <c r="E42" s="103">
         <v>0.5</v>
       </c>
-      <c r="F42" s="109">
+      <c r="F42" s="103">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="107" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="109">
+      <c r="B43" s="103">
         <v>0.19999999999999996</v>
       </c>
-      <c r="C43" s="109">
+      <c r="C43" s="103">
         <v>0.39999999999999991</v>
       </c>
-      <c r="D43" s="109">
+      <c r="D43" s="103">
         <v>0.29999999999999993</v>
       </c>
-      <c r="E43" s="109">
+      <c r="E43" s="103">
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="F43" s="109">
+      <c r="F43" s="103">
         <v>1</v>
       </c>
     </row>
